--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44855</v>
+        <v>44875</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,31 +604,111 @@
         </is>
       </c>
       <c r="M3" t="n">
+        <v>50</v>
+      </c>
+      <c r="N3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44855</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Golden Nugget</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>25</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N4" t="n">
         <v>15000</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O4" t="n">
         <v>15000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P4" t="n">
         <v>15000</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S3" t="n">
+      <c r="S4" t="n">
         <v>3000</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T4" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
         <v>16000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44875</v>
+        <v>44855</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44855</v>
+        <v>44874</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>44874</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N2" t="n">
         <v>16000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
         <v>16000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44874</v>
+        <v>44855</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44855</v>
+        <v>44874</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44855</v>
+        <v>44874</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44874</v>
+        <v>44855</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44855</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44875</v>
+        <v>44855</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44874</v>
+        <v>44855</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44855</v>
+        <v>44874</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44874</v>
+        <v>44855</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44855</v>
+        <v>44875</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44875</v>
+        <v>44874</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N4" t="n">
         <v>16000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44855</v>
+        <v>44874</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44875</v>
+        <v>44855</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
         <v>16000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
         <v>16000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44875</v>
+        <v>44874</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N4" t="n">
         <v>16000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>44855</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44855</v>
+        <v>44875</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44855</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44875</v>
+        <v>44874</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N3" t="n">
         <v>16000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44874</v>
+        <v>44855</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>44855</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44855</v>
+        <v>44875</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>44874</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N2" t="n">
         <v>16000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44874</v>
+        <v>44855</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44855</v>
+        <v>44875</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
         <v>16000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44855</v>
+        <v>44874</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44875</v>
+        <v>44855</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44855</v>
+        <v>44875</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44875</v>
+        <v>44855</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44874</v>
+        <v>44855</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44855</v>
+        <v>44874</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44874</v>
+        <v>45222</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,31 +684,111 @@
         </is>
       </c>
       <c r="M4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44874</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Golden Nugget</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>67</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N5" t="n">
         <v>16000</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>16000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>16000</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>1600</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44855</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44875</v>
+        <v>45222</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45222</v>
+        <v>44855</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -697,19 +697,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45222</v>
+        <v>44874</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44855</v>
+        <v>45222</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -697,19 +697,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44874</v>
+        <v>44855</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44874</v>
+        <v>44855</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45222</v>
+        <v>44874</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44855</v>
+        <v>45222</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>
@@ -777,19 +777,19 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44855</v>
+        <v>44874</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44874</v>
+        <v>45222</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45222</v>
+        <v>44855</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>
@@ -777,19 +777,19 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>44855</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44855</v>
+        <v>45222</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,19 +617,19 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
         <v>16000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45222</v>
+        <v>44874</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44855</v>
+        <v>44874</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45222</v>
+        <v>44855</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -617,19 +617,19 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44875</v>
+        <v>45222</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
         <v>16000</v>
